--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth1LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth1LDOD1BRNTOTK50percentRL201718.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="324" windowWidth="14340" windowHeight="4212" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4215" windowWidth="14340" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="330"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateMonthly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForMonthlyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateMonthly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForMonthlyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="88">
   <si>
     <t>TC</t>
   </si>
@@ -278,12 +283,16 @@
   </si>
   <si>
     <t>Monthly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll Net Income tax calculation Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -393,98 +402,101 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -495,10 +507,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -533,7 +545,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -566,9 +578,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -601,6 +630,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -656,7 +702,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -665,13 +711,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -681,7 +727,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -690,7 +736,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -699,7 +745,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -709,12 +755,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -745,7 +791,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -764,7 +810,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -776,22 +822,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,7 +851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -819,7 +865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -833,7 +879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -847,7 +893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -862,29 +908,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -910,7 +956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="16.149999999999999" r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -936,7 +982,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -957,7 +1003,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -978,7 +1024,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -999,7 +1045,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -1020,7 +1066,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -1041,7 +1087,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1062,7 +1108,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
@@ -1083,7 +1129,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
@@ -1104,7 +1150,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>29</v>
       </c>
@@ -1125,7 +1171,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
@@ -1146,7 +1192,7 @@
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>45</v>
       </c>
@@ -1167,7 +1213,7 @@
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>46</v>
       </c>
@@ -1188,7 +1234,7 @@
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>47</v>
       </c>
@@ -1209,7 +1255,7 @@
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>48</v>
       </c>
@@ -1230,7 +1276,7 @@
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>49</v>
       </c>
@@ -1251,7 +1297,7 @@
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>50</v>
       </c>
@@ -1272,7 +1318,7 @@
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>44</v>
       </c>
@@ -1293,7 +1339,7 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>51</v>
       </c>
@@ -1313,7 +1359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>64</v>
       </c>
@@ -1333,7 +1379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>52</v>
       </c>
@@ -1353,7 +1399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>53</v>
       </c>
@@ -1373,7 +1419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>54</v>
       </c>
@@ -1393,7 +1439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>55</v>
       </c>
@@ -1413,7 +1459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>56</v>
       </c>
@@ -1433,7 +1479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>65</v>
       </c>
@@ -1453,7 +1499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>57</v>
       </c>
@@ -1473,7 +1519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>58</v>
       </c>
@@ -1493,7 +1539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>59</v>
       </c>
@@ -1513,7 +1559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>60</v>
       </c>
@@ -1533,7 +1579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>61</v>
       </c>
@@ -1553,7 +1599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>62</v>
       </c>
@@ -1573,7 +1619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>63</v>
       </c>
@@ -1594,33 +1640,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
@@ -1661,7 +1707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="24" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>85</v>
       </c>
@@ -1696,7 +1742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>85</v>
       </c>
@@ -1733,7 +1779,7 @@
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
     </row>
-    <row r="4" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>85</v>
       </c>
@@ -1770,7 +1816,7 @@
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
     </row>
-    <row r="5" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>85</v>
       </c>
@@ -1807,7 +1853,7 @@
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
     </row>
-    <row r="6" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>85</v>
       </c>
@@ -1844,7 +1890,7 @@
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
     </row>
-    <row r="7" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>85</v>
       </c>
@@ -1881,7 +1927,7 @@
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
     </row>
-    <row r="8" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>85</v>
       </c>
@@ -1918,7 +1964,7 @@
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
     </row>
-    <row r="9" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>85</v>
       </c>
@@ -1955,7 +2001,7 @@
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
     </row>
-    <row r="10" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>85</v>
       </c>
@@ -1992,7 +2038,7 @@
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
     </row>
-    <row r="11" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>85</v>
       </c>
@@ -2029,7 +2075,7 @@
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
     </row>
-    <row r="12" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>85</v>
       </c>
@@ -2066,7 +2112,7 @@
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
     </row>
-    <row r="13" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>85</v>
       </c>
@@ -2103,7 +2149,7 @@
       <c r="L13" s="24"/>
       <c r="M13" s="24"/>
     </row>
-    <row r="14" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>85</v>
       </c>
@@ -2140,7 +2186,7 @@
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
     </row>
-    <row r="15" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>85</v>
       </c>
@@ -2177,7 +2223,7 @@
       <c r="L15" s="24"/>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>85</v>
       </c>
@@ -2214,7 +2260,7 @@
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
     </row>
-    <row r="17" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>85</v>
       </c>
@@ -2251,7 +2297,7 @@
       <c r="L17" s="24"/>
       <c r="M17" s="24"/>
     </row>
-    <row r="18" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>85</v>
       </c>
@@ -2288,7 +2334,7 @@
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
     </row>
-    <row r="19" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>85</v>
       </c>
@@ -2325,7 +2371,7 @@
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
     </row>
-    <row r="20" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>85</v>
       </c>
@@ -2362,7 +2408,7 @@
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
     </row>
-    <row r="21" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>85</v>
       </c>
@@ -2399,7 +2445,7 @@
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
     </row>
-    <row r="22" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>85</v>
       </c>
@@ -2436,7 +2482,7 @@
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
     </row>
-    <row r="23" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>85</v>
       </c>
@@ -2473,7 +2519,7 @@
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
     </row>
-    <row r="24" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>85</v>
       </c>
@@ -2510,7 +2556,7 @@
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
     </row>
-    <row r="25" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>85</v>
       </c>
@@ -2547,7 +2593,7 @@
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
     </row>
-    <row r="26" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>85</v>
       </c>
@@ -2584,7 +2630,7 @@
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
     </row>
-    <row r="27" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>85</v>
       </c>
@@ -2621,7 +2667,7 @@
       <c r="L27" s="24"/>
       <c r="M27" s="24"/>
     </row>
-    <row r="28" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>85</v>
       </c>
@@ -2658,7 +2704,7 @@
       <c r="L28" s="24"/>
       <c r="M28" s="24"/>
     </row>
-    <row r="29" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>85</v>
       </c>
@@ -2695,7 +2741,7 @@
       <c r="L29" s="24"/>
       <c r="M29" s="24"/>
     </row>
-    <row r="30" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>85</v>
       </c>
@@ -2732,7 +2778,7 @@
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
     </row>
-    <row r="31" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>85</v>
       </c>
@@ -2769,7 +2815,7 @@
       <c r="L31" s="24"/>
       <c r="M31" s="24"/>
     </row>
-    <row r="32" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>85</v>
       </c>
@@ -2806,7 +2852,7 @@
       <c r="L32" s="24"/>
       <c r="M32" s="24"/>
     </row>
-    <row r="33" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>85</v>
       </c>
@@ -2843,7 +2889,7 @@
       <c r="L33" s="24"/>
       <c r="M33" s="24"/>
     </row>
-    <row r="34" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="60" r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>85</v>
       </c>
@@ -2882,35 +2928,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="A3:A34" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3:A34" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
@@ -2951,7 +2997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="24" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>85</v>
       </c>
@@ -2974,7 +3020,7 @@
         <v>79</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I2" s="21" t="s">
         <v>84</v>
@@ -2988,9 +3034,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth1LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth1LDOD1BRNTOTK50percentRL201718.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="88">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth1LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth1LDOD1BRNTOTK50percentRL201718.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="88">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth1LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth1LDOD1BRNTOTK50percentRL201718.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="88">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth1LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth1LDOD1BRNTOTK50percentRL201718.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="88">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth1LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth1LDOD1BRNTOTK50percentRL201718.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="88">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth1LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth1LDOD1BRNTOTK50percentRL201718.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="4215" windowWidth="14340" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="330"/>
+    <workbookView xWindow="396" yWindow="336" windowWidth="14340" windowHeight="4212" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="GeneralTaxRateMonthly" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForMonthlyTax" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="GeneralTaxRateMonthly" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForMonthlyTax" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="88">
   <si>
     <t>TC</t>
   </si>
@@ -291,8 +286,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -402,95 +396,95 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -507,10 +501,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -545,7 +539,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -578,26 +572,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -630,23 +607,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -702,7 +662,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -711,13 +671,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -727,7 +687,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -736,7 +696,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -745,7 +705,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -755,12 +715,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -791,7 +751,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -810,7 +770,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -822,22 +782,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,7 +811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -865,7 +825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -879,7 +839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -893,7 +853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -908,29 +868,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -956,7 +916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="16.149999999999999" r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -982,7 +942,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -1003,7 +963,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1024,7 +984,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -1045,7 +1005,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -1066,7 +1026,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -1087,7 +1047,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1108,7 +1068,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
@@ -1129,7 +1089,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
@@ -1150,7 +1110,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>29</v>
       </c>
@@ -1171,7 +1131,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
@@ -1192,7 +1152,7 @@
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>45</v>
       </c>
@@ -1213,7 +1173,7 @@
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>46</v>
       </c>
@@ -1234,7 +1194,7 @@
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>47</v>
       </c>
@@ -1255,7 +1215,7 @@
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>48</v>
       </c>
@@ -1276,7 +1236,7 @@
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>49</v>
       </c>
@@ -1297,7 +1257,7 @@
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>50</v>
       </c>
@@ -1318,7 +1278,7 @@
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>44</v>
       </c>
@@ -1339,7 +1299,7 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>51</v>
       </c>
@@ -1359,7 +1319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>64</v>
       </c>
@@ -1379,7 +1339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>52</v>
       </c>
@@ -1399,7 +1359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>53</v>
       </c>
@@ -1419,7 +1379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>54</v>
       </c>
@@ -1439,7 +1399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>55</v>
       </c>
@@ -1459,7 +1419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>56</v>
       </c>
@@ -1479,7 +1439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>65</v>
       </c>
@@ -1499,7 +1459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>57</v>
       </c>
@@ -1519,7 +1479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>58</v>
       </c>
@@ -1539,7 +1499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>59</v>
       </c>
@@ -1559,7 +1519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>60</v>
       </c>
@@ -1579,7 +1539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>61</v>
       </c>
@@ -1599,7 +1559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>62</v>
       </c>
@@ -1619,7 +1579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>63</v>
       </c>
@@ -1640,33 +1600,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="39.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="40.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="53.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
@@ -1707,7 +1667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="24" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>85</v>
       </c>
@@ -1742,7 +1702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="60" r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>85</v>
       </c>
@@ -1779,7 +1739,7 @@
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
     </row>
-    <row ht="60" r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>85</v>
       </c>
@@ -1816,7 +1776,7 @@
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
     </row>
-    <row ht="60" r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>85</v>
       </c>
@@ -1853,7 +1813,7 @@
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
     </row>
-    <row ht="60" r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>85</v>
       </c>
@@ -1890,7 +1850,7 @@
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
     </row>
-    <row ht="60" r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>85</v>
       </c>
@@ -1927,7 +1887,7 @@
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
     </row>
-    <row ht="60" r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>85</v>
       </c>
@@ -1964,7 +1924,7 @@
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
     </row>
-    <row ht="60" r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>85</v>
       </c>
@@ -2001,7 +1961,7 @@
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
     </row>
-    <row ht="60" r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>85</v>
       </c>
@@ -2038,7 +1998,7 @@
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
     </row>
-    <row ht="60" r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>85</v>
       </c>
@@ -2075,7 +2035,7 @@
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
     </row>
-    <row ht="60" r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>85</v>
       </c>
@@ -2112,7 +2072,7 @@
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
     </row>
-    <row ht="60" r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>85</v>
       </c>
@@ -2149,7 +2109,7 @@
       <c r="L13" s="24"/>
       <c r="M13" s="24"/>
     </row>
-    <row ht="60" r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>85</v>
       </c>
@@ -2186,7 +2146,7 @@
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
     </row>
-    <row ht="60" r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>85</v>
       </c>
@@ -2223,7 +2183,7 @@
       <c r="L15" s="24"/>
       <c r="M15" s="24"/>
     </row>
-    <row ht="60" r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>85</v>
       </c>
@@ -2260,7 +2220,7 @@
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
     </row>
-    <row ht="60" r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>85</v>
       </c>
@@ -2297,7 +2257,7 @@
       <c r="L17" s="24"/>
       <c r="M17" s="24"/>
     </row>
-    <row ht="60" r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>85</v>
       </c>
@@ -2334,7 +2294,7 @@
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
     </row>
-    <row ht="60" r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>85</v>
       </c>
@@ -2371,7 +2331,7 @@
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
     </row>
-    <row ht="60" r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>85</v>
       </c>
@@ -2408,7 +2368,7 @@
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
     </row>
-    <row ht="60" r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>85</v>
       </c>
@@ -2445,7 +2405,7 @@
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
     </row>
-    <row ht="60" r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
         <v>85</v>
       </c>
@@ -2482,7 +2442,7 @@
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
     </row>
-    <row ht="60" r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
         <v>85</v>
       </c>
@@ -2519,7 +2479,7 @@
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
     </row>
-    <row ht="60" r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
         <v>85</v>
       </c>
@@ -2556,7 +2516,7 @@
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
     </row>
-    <row ht="60" r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
         <v>85</v>
       </c>
@@ -2593,7 +2553,7 @@
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
     </row>
-    <row ht="60" r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
         <v>85</v>
       </c>
@@ -2630,7 +2590,7 @@
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
     </row>
-    <row ht="60" r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>85</v>
       </c>
@@ -2667,7 +2627,7 @@
       <c r="L27" s="24"/>
       <c r="M27" s="24"/>
     </row>
-    <row ht="60" r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>85</v>
       </c>
@@ -2704,7 +2664,7 @@
       <c r="L28" s="24"/>
       <c r="M28" s="24"/>
     </row>
-    <row ht="60" r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
         <v>85</v>
       </c>
@@ -2741,7 +2701,7 @@
       <c r="L29" s="24"/>
       <c r="M29" s="24"/>
     </row>
-    <row ht="60" r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
         <v>85</v>
       </c>
@@ -2778,7 +2738,7 @@
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
     </row>
-    <row ht="60" r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
         <v>85</v>
       </c>
@@ -2815,7 +2775,7 @@
       <c r="L31" s="24"/>
       <c r="M31" s="24"/>
     </row>
-    <row ht="60" r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
         <v>85</v>
       </c>
@@ -2852,7 +2812,7 @@
       <c r="L32" s="24"/>
       <c r="M32" s="24"/>
     </row>
-    <row ht="60" r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
         <v>85</v>
       </c>
@@ -2889,7 +2849,7 @@
       <c r="L33" s="24"/>
       <c r="M33" s="24"/>
     </row>
-    <row ht="60" r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="25" t="s">
         <v>85</v>
       </c>
@@ -2928,35 +2888,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3:A34" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A3:A34" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="38.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="1" max="1" width="53.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
@@ -2997,7 +2957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="24" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>85</v>
       </c>
@@ -3034,9 +2994,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth1LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth1LDOD1BRNTOTK50percentRL201718.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="336" windowWidth="14340" windowHeight="4212" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4212" windowWidth="14340" xWindow="396" yWindow="336"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateMonthly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForMonthlyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateMonthly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForMonthlyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="88">
   <si>
     <t>TC</t>
   </si>
@@ -287,6 +287,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -396,95 +397,95 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -501,10 +502,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -662,7 +663,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -671,13 +672,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -687,7 +688,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -696,7 +697,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -705,7 +706,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -715,12 +716,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -751,7 +752,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -770,7 +771,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -782,7 +783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -791,13 +792,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -811,7 +812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -825,7 +826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -839,7 +840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -853,7 +854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -868,13 +869,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -883,14 +884,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -916,7 +917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="16.2" r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -942,7 +943,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -963,7 +964,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -984,7 +985,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -1005,7 +1006,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -1047,7 +1048,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1068,7 +1069,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
@@ -1089,7 +1090,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
@@ -1110,7 +1111,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>29</v>
       </c>
@@ -1600,13 +1601,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1615,18 +1616,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
@@ -1667,7 +1668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="24" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>85</v>
       </c>
@@ -1702,7 +1703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>85</v>
       </c>
@@ -1739,7 +1740,7 @@
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
     </row>
-    <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>85</v>
       </c>
@@ -1776,7 +1777,7 @@
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
     </row>
-    <row r="5" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>85</v>
       </c>
@@ -1813,7 +1814,7 @@
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
     </row>
-    <row r="6" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>85</v>
       </c>
@@ -1850,7 +1851,7 @@
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
     </row>
-    <row r="7" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>85</v>
       </c>
@@ -1887,7 +1888,7 @@
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
     </row>
-    <row r="8" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>85</v>
       </c>
@@ -1924,7 +1925,7 @@
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
     </row>
-    <row r="9" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>85</v>
       </c>
@@ -1961,7 +1962,7 @@
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
     </row>
-    <row r="10" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>85</v>
       </c>
@@ -1998,7 +1999,7 @@
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
     </row>
-    <row r="11" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>85</v>
       </c>
@@ -2035,7 +2036,7 @@
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
     </row>
-    <row r="12" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>85</v>
       </c>
@@ -2072,7 +2073,7 @@
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
     </row>
-    <row r="13" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>85</v>
       </c>
@@ -2109,7 +2110,7 @@
       <c r="L13" s="24"/>
       <c r="M13" s="24"/>
     </row>
-    <row r="14" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>85</v>
       </c>
@@ -2146,7 +2147,7 @@
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
     </row>
-    <row r="15" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>85</v>
       </c>
@@ -2183,7 +2184,7 @@
       <c r="L15" s="24"/>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>85</v>
       </c>
@@ -2220,7 +2221,7 @@
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
     </row>
-    <row r="17" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>85</v>
       </c>
@@ -2257,7 +2258,7 @@
       <c r="L17" s="24"/>
       <c r="M17" s="24"/>
     </row>
-    <row r="18" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>85</v>
       </c>
@@ -2294,7 +2295,7 @@
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
     </row>
-    <row r="19" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>85</v>
       </c>
@@ -2331,7 +2332,7 @@
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
     </row>
-    <row r="20" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>85</v>
       </c>
@@ -2368,7 +2369,7 @@
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
     </row>
-    <row r="21" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>85</v>
       </c>
@@ -2405,7 +2406,7 @@
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
     </row>
-    <row r="22" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
         <v>85</v>
       </c>
@@ -2442,7 +2443,7 @@
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
     </row>
-    <row r="23" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
         <v>85</v>
       </c>
@@ -2479,7 +2480,7 @@
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
     </row>
-    <row r="24" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
         <v>85</v>
       </c>
@@ -2516,7 +2517,7 @@
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
     </row>
-    <row r="25" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
         <v>85</v>
       </c>
@@ -2553,7 +2554,7 @@
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
     </row>
-    <row r="26" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
         <v>85</v>
       </c>
@@ -2590,7 +2591,7 @@
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
     </row>
-    <row r="27" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>85</v>
       </c>
@@ -2627,7 +2628,7 @@
       <c r="L27" s="24"/>
       <c r="M27" s="24"/>
     </row>
-    <row r="28" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>85</v>
       </c>
@@ -2664,7 +2665,7 @@
       <c r="L28" s="24"/>
       <c r="M28" s="24"/>
     </row>
-    <row r="29" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
         <v>85</v>
       </c>
@@ -2701,7 +2702,7 @@
       <c r="L29" s="24"/>
       <c r="M29" s="24"/>
     </row>
-    <row r="30" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
         <v>85</v>
       </c>
@@ -2738,7 +2739,7 @@
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
     </row>
-    <row r="31" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
         <v>85</v>
       </c>
@@ -2775,7 +2776,7 @@
       <c r="L31" s="24"/>
       <c r="M31" s="24"/>
     </row>
-    <row r="32" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
         <v>85</v>
       </c>
@@ -2812,7 +2813,7 @@
       <c r="L32" s="24"/>
       <c r="M32" s="24"/>
     </row>
-    <row r="33" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
         <v>85</v>
       </c>
@@ -2849,7 +2850,7 @@
       <c r="L33" s="24"/>
       <c r="M33" s="24"/>
     </row>
-    <row r="34" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="25" t="s">
         <v>85</v>
       </c>
@@ -2888,15 +2889,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="A3:A34" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3:A34"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2905,18 +2906,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="38.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
@@ -2957,7 +2958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="24" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>85</v>
       </c>
@@ -2994,9 +2995,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth1LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth1LDOD1BRNTOTK50percentRL201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="88">
   <si>
     <t>TC</t>
   </si>
